--- a/Automation1/data/Testdata.xlsx
+++ b/Automation1/data/Testdata.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B.Tathe\workspace wccm5\Automation1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANKUSH\git\repository11\Automation1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B6F1CB-0815-4EE0-92CB-D06D74469CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D9A6A0-0C7B-4089-AB58-A9223524E3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6432" yWindow="1032" windowWidth="12216" windowHeight="9708" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6432" yWindow="1032" windowWidth="12216" windowHeight="9708" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
     <sheet name="ValidCredentials" sheetId="2" r:id="rId2"/>
-    <sheet name="invalidCredentials" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="invalidCredentials" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Automation tool</t>
   </si>
@@ -87,6 +89,27 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>admin12</t>
+  </si>
+  <si>
+    <t>manager12</t>
+  </si>
+  <si>
+    <t>gusgfuyewgf</t>
+  </si>
+  <si>
+    <t>dudgfywgfj</t>
   </si>
 </sst>
 </file>
@@ -469,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8049D37-95E6-42BE-88F5-D7352782E99F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -508,10 +531,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C353ADC-1904-45AC-ADA8-2F379C1D3BD6}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12345678</v>
+      </c>
+      <c r="B6">
+        <v>1233455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAC1153-0B2E-4B42-AF54-6844B91FF0C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A1A5D9-804C-4E1A-8E83-4A7F5B357037}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
